--- a/Things to Buy new.xlsx
+++ b/Things to Buy new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="256">
   <si>
     <t>Aluminum Foam</t>
   </si>
@@ -766,6 +766,24 @@
   </si>
   <si>
     <t>Drivetrain (Bak)</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>10 pcs x 36 leds</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/10pcs-0-5M-27Red-9Blue-12V-LED10w-grow-light-bars-light-strip-Hydroponic-Plant-flowers-vegatables/32251271379.html?spm=2114.10010108.1000014.5.XaKF9i&amp;scm=1007.13338.70306.000000000000000&amp;pvid=f21e3a0f-4c03-45de-9662-14d3a790bbe3&amp;tpp=1</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Dolar</t>
   </si>
 </sst>
 </file>
@@ -870,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -908,26 +926,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -949,6 +947,36 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1253,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G10:O115"/>
+  <dimension ref="G10:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J70" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1302,7 +1330,7 @@
       <c r="N13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1315,29 +1343,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="28"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="7:15">
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="27"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="7:15">
       <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="17" t="s">
         <v>244</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -1352,7 +1380,7 @@
       <c r="M16" s="5">
         <v>2</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="16">
         <f>2.42*5.65*5.58*0.7</f>
         <v>53.406737999999997</v>
       </c>
@@ -1365,8 +1393,8 @@
       <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="29" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="21" t="s">
         <v>246</v>
       </c>
       <c r="J17" s="7" t="s">
@@ -1381,7 +1409,7 @@
       <c r="M17" s="5">
         <v>2</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="16">
         <f>10*3.58*0.7*0.7</f>
         <v>17.541999999999994</v>
       </c>
@@ -1394,8 +1422,8 @@
       <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="21" t="s">
         <v>245</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -1423,8 +1451,8 @@
       <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="21" t="s">
         <v>247</v>
       </c>
       <c r="J19" s="7"/>
@@ -1437,7 +1465,7 @@
       <c r="M19" s="5">
         <v>1</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="16">
         <f>0.37*5.65*5.58*0.7</f>
         <v>8.1654929999999997</v>
       </c>
@@ -1458,23 +1486,23 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="7:15">
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="27"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="7:15">
       <c r="G22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="25" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -1502,7 +1530,7 @@
       <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1556,7 @@
       <c r="G24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="4" t="s">
         <v>32</v>
       </c>
@@ -1614,13 +1642,13 @@
       <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="25" t="s">
         <v>46</v>
       </c>
       <c r="K27" s="10" t="s">
@@ -1644,11 +1672,11 @@
       <c r="G28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="10" t="s">
         <v>47</v>
       </c>
@@ -1670,11 +1698,11 @@
       <c r="G29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="10" t="s">
         <v>47</v>
       </c>
@@ -1696,11 +1724,11 @@
       <c r="G30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="10" t="s">
         <v>47</v>
       </c>
@@ -1722,11 +1750,11 @@
       <c r="G31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="10" t="s">
         <v>47</v>
       </c>
@@ -1778,13 +1806,13 @@
       <c r="G33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="27" t="s">
         <v>62</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K33" s="6" t="s">
@@ -1797,7 +1825,7 @@
       <c r="N33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1805,11 +1833,11 @@
       <c r="G34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="6" t="s">
         <v>65</v>
       </c>
@@ -1820,7 +1848,7 @@
       <c r="N34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1828,7 +1856,7 @@
       <c r="G35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="4" t="s">
         <v>63</v>
       </c>
@@ -1845,7 +1873,7 @@
       <c r="N35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1901,10 +1929,10 @@
       <c r="M37" s="5">
         <v>118</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="N37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1950,17 +1978,17 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="7:15">
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="27"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="19"/>
     </row>
     <row r="41" spans="7:15">
       <c r="G41" s="4" t="s">
@@ -1978,13 +2006,13 @@
       <c r="K41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L41" s="17" t="s">
+      <c r="L41" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="30">
         <v>1</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="30">
         <v>188.25</v>
       </c>
       <c r="O41" s="4">
@@ -2008,9 +2036,9 @@
       <c r="K42" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="7:15">
@@ -2029,9 +2057,9 @@
       <c r="K43" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="7:15">
@@ -2087,7 +2115,7 @@
       <c r="N45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O45" s="25" t="s">
+      <c r="O45" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2114,7 +2142,7 @@
       <c r="N46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O46" s="25" t="s">
+      <c r="O46" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2142,7 +2170,7 @@
         <v>16.52</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" ref="O45:O53" si="2">N47*M47</f>
+        <f t="shared" ref="O47:O52" si="2">N47*M47</f>
         <v>33.04</v>
       </c>
     </row>
@@ -2208,7 +2236,7 @@
       <c r="G50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="29" t="s">
         <v>123</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -2238,7 +2266,7 @@
       <c r="G51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H51" s="18"/>
+      <c r="H51" s="26"/>
       <c r="I51" s="4" t="s">
         <v>129</v>
       </c>
@@ -2269,7 +2297,7 @@
       <c r="H52" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I52" s="25" t="s">
+      <c r="I52" s="17" t="s">
         <v>238</v>
       </c>
       <c r="J52" s="9" t="s">
@@ -2284,7 +2312,7 @@
       <c r="M52" s="5">
         <v>2</v>
       </c>
-      <c r="N52" s="24">
+      <c r="N52" s="16">
         <f>0.6*29.41*3.5</f>
         <v>61.761000000000003</v>
       </c>
@@ -2300,7 +2328,7 @@
       <c r="H53" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="I53" s="17" t="s">
         <v>139</v>
       </c>
       <c r="J53" s="9" t="s">
@@ -2313,10 +2341,10 @@
       <c r="M53" s="5">
         <v>2</v>
       </c>
-      <c r="N53" s="24" t="s">
+      <c r="N53" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="O53" s="25" t="s">
+      <c r="O53" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2332,17 +2360,17 @@
       <c r="O54" s="4"/>
     </row>
     <row r="55" spans="7:15">
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="27"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="19"/>
     </row>
     <row r="56" spans="7:15">
       <c r="G56" s="4" t="s">
@@ -2522,7 +2550,7 @@
       <c r="K62" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="L62" s="23" t="s">
+      <c r="L62" s="15" t="s">
         <v>237</v>
       </c>
       <c r="M62" s="5">
@@ -2556,10 +2584,10 @@
       <c r="M63" s="5">
         <v>4</v>
       </c>
-      <c r="N63" s="24" t="s">
+      <c r="N63" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="O63" s="25" t="s">
+      <c r="O63" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2586,7 +2614,7 @@
       <c r="N64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O64" s="25" t="s">
+      <c r="O64" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2727,118 +2755,121 @@
       </c>
     </row>
     <row r="70" spans="7:15">
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="4"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="4"/>
+      <c r="L70" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="M70" s="5">
+        <v>1</v>
+      </c>
+      <c r="N70" s="5">
+        <f>25.5*3.58</f>
+        <v>91.29</v>
+      </c>
+      <c r="O70" s="4">
+        <f>N70</f>
+        <v>91.29</v>
+      </c>
     </row>
     <row r="71" spans="7:15">
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="7:15">
+      <c r="G72" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="27"/>
-    </row>
-    <row r="72" spans="7:15">
-      <c r="G72" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="M72" s="5">
-        <v>3</v>
-      </c>
-      <c r="N72" s="5">
-        <v>5</v>
-      </c>
-      <c r="O72" s="4">
-        <f>N72*M72</f>
-        <v>15</v>
-      </c>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="19"/>
     </row>
     <row r="73" spans="7:15">
       <c r="G73" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="19" t="s">
-        <v>187</v>
+        <v>196</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="M73" s="5">
         <v>3</v>
       </c>
       <c r="N73" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" ref="O73:O80" si="4">N73*M73</f>
-        <v>6</v>
+        <f>N73*M73</f>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="7:15">
       <c r="G74" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L74" s="18"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="M74" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74" s="5">
         <v>2</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="O74:O81" si="4">N74*M74</f>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="7:15">
       <c r="G75" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="18"/>
+      <c r="K75" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L75" s="26"/>
       <c r="M75" s="5">
         <v>1</v>
       </c>
@@ -2852,15 +2883,15 @@
     </row>
     <row r="76" spans="7:15">
       <c r="G76" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="18"/>
+      <c r="L76" s="26"/>
       <c r="M76" s="5">
         <v>1</v>
       </c>
@@ -2874,270 +2905,269 @@
     </row>
     <row r="77" spans="7:15">
       <c r="G77" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>208</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="18"/>
+      <c r="L77" s="26"/>
       <c r="M77" s="5">
         <v>1</v>
       </c>
       <c r="N77" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O77" s="4">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="7:15">
       <c r="G78" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I78" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="18"/>
+      <c r="L78" s="26"/>
       <c r="M78" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N78" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O78" s="4">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="7:15">
-      <c r="G79" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>210</v>
+      <c r="G79" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="18"/>
+      <c r="L79" s="26"/>
       <c r="M79" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N79" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O79" s="4">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="7:15">
-      <c r="G80" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>211</v>
+      <c r="G80" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="18"/>
+      <c r="L80" s="26"/>
       <c r="M80" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N80" s="5">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="O80" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="7:15">
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="4"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="5">
+        <v>4</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="O81" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="82" spans="7:15">
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="4"/>
+    </row>
+    <row r="83" spans="7:15">
+      <c r="G83" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="27"/>
-    </row>
-    <row r="83" spans="7:15">
-      <c r="G83" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="M83" s="5">
-        <v>12</v>
-      </c>
-      <c r="N83" s="5">
-        <v>3.85</v>
-      </c>
-      <c r="O83" s="4">
-        <f>N83*M83</f>
-        <v>46.2</v>
-      </c>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="19"/>
     </row>
     <row r="84" spans="7:15">
       <c r="G84" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I84" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4" t="s">
-        <v>187</v>
+      <c r="K84" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="M84" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N84" s="5">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="O84" s="4">
-        <f t="shared" ref="O84:O86" si="5">N84*M84</f>
-        <v>5</v>
+        <f>N84*M84</f>
+        <v>46.2</v>
       </c>
     </row>
     <row r="85" spans="7:15">
       <c r="G85" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M85" s="5">
+        <v>1</v>
+      </c>
+      <c r="N85" s="5">
+        <v>5</v>
+      </c>
+      <c r="O85" s="4">
+        <f t="shared" ref="O85:O87" si="5">N85*M85</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="7:15">
+      <c r="G86" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="I86" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="J85" s="4"/>
-      <c r="K85" s="6" t="s">
+      <c r="J86" s="4"/>
+      <c r="K86" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="L86" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M86" s="5">
         <v>12</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O85" s="25" t="s">
+      <c r="O86" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="7:15">
-      <c r="H86" s="4" t="s">
+    <row r="87" spans="7:15">
+      <c r="H87" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I86" s="14" t="s">
+      <c r="I87" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="J87" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="K86" s="23" t="s">
+      <c r="K87" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L87" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M87" s="5">
         <v>1</v>
       </c>
-      <c r="N86" s="5">
+      <c r="N87" s="5">
         <v>66</v>
       </c>
-      <c r="O86" s="4">
+      <c r="O87" s="4">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="7:15">
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="4"/>
-    </row>
     <row r="88" spans="7:15">
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="7:15">
+      <c r="G89" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="27"/>
-    </row>
-    <row r="89" spans="7:15">
-      <c r="G89" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J89" s="4"/>
-      <c r="K89" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M89" s="5">
-        <v>2</v>
-      </c>
-      <c r="N89" s="1"/>
-      <c r="O89" s="4"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="19"/>
     </row>
     <row r="90" spans="7:15">
       <c r="G90" s="9" t="s">
@@ -3147,7 +3177,7 @@
         <v>223</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="6" t="s">
@@ -3159,18 +3189,18 @@
       <c r="M90" s="5">
         <v>2</v>
       </c>
-      <c r="N90" s="5"/>
+      <c r="N90" s="1"/>
       <c r="O90" s="4"/>
     </row>
     <row r="91" spans="7:15">
       <c r="G91" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="6" t="s">
@@ -3180,40 +3210,52 @@
         <v>187</v>
       </c>
       <c r="M91" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N91" s="5"/>
       <c r="O91" s="4"/>
     </row>
     <row r="92" spans="7:15">
-      <c r="G92" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>229</v>
+      <c r="G92" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+      <c r="K92" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="L92" s="4" t="s">
         <v>187</v>
       </c>
       <c r="M92" s="5">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N92" s="5"/>
       <c r="O92" s="4"/>
     </row>
     <row r="93" spans="7:15">
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="5"/>
+      <c r="L93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M93" s="5">
+        <v>20</v>
+      </c>
       <c r="N93" s="5"/>
       <c r="O93" s="4"/>
     </row>
@@ -3225,13 +3267,8 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="O94" s="4">
-        <f>SUM(O56:O61,O62,O86,O84,O83,O72:O80,O65:O69,O47:O52,O44,O41,O38,O36,O22:O32,O16:O19)</f>
-        <v>1304.2989889999999</v>
-      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="4"/>
     </row>
     <row r="95" spans="7:15">
       <c r="G95" s="4"/>
@@ -3241,12 +3278,12 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="5"/>
-      <c r="N95" s="24" t="s">
-        <v>243</v>
+      <c r="N95" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="O95" s="4">
-        <f>O94/3.58</f>
-        <v>364.32932653631281</v>
+        <f>SUM(O56:O61,O62,O87,O85,O84,O73:O81,O65:O69,O47:O52,O44,O41,O38,O36,O22:O32,O16:O19,O70)</f>
+        <v>1395.5889889999999</v>
       </c>
     </row>
     <row r="96" spans="7:15">
@@ -3257,10 +3294,15 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="7:15">
+      <c r="N96" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="O96" s="4">
+        <f>O95/3.58</f>
+        <v>389.82932653631281</v>
+      </c>
+    </row>
+    <row r="97" spans="7:16">
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -3271,7 +3313,7 @@
       <c r="N97" s="5"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="7:15">
+    <row r="98" spans="7:16">
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -3282,7 +3324,7 @@
       <c r="N98" s="5"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="7:15">
+    <row r="99" spans="7:16">
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -3293,7 +3335,7 @@
       <c r="N99" s="5"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="7:15">
+    <row r="100" spans="7:16">
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -3304,7 +3346,7 @@
       <c r="N100" s="5"/>
       <c r="O100" s="4"/>
     </row>
-    <row r="101" spans="7:15">
+    <row r="101" spans="7:16">
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -3315,7 +3357,7 @@
       <c r="N101" s="5"/>
       <c r="O101" s="4"/>
     </row>
-    <row r="102" spans="7:15">
+    <row r="102" spans="7:16">
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -3326,7 +3368,7 @@
       <c r="N102" s="5"/>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="7:15">
+    <row r="103" spans="7:16">
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -3337,7 +3379,7 @@
       <c r="N103" s="5"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="104" spans="7:15">
+    <row r="104" spans="7:16">
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -3348,7 +3390,7 @@
       <c r="N104" s="5"/>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="7:15">
+    <row r="105" spans="7:16">
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -3357,87 +3399,157 @@
       <c r="L105" s="4"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
-      <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="7:15">
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="7:15">
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="7:15">
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="7:15">
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="7:15">
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="7:15">
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="7:15">
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="7:15">
-      <c r="G113" s="4"/>
+      <c r="O105" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="P105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="7:16">
+      <c r="G106" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="33">
+        <f>SUM((O16:O19))</f>
+        <v>158.37056899999999</v>
+      </c>
+      <c r="P106">
+        <f>O106/3.58</f>
+        <v>44.237589106145251</v>
+      </c>
+    </row>
+    <row r="107" spans="7:16">
+      <c r="G107" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="33">
+        <f>SUM(O22:O32,O36,O38)</f>
+        <v>24.296420000000001</v>
+      </c>
+      <c r="P107">
+        <f t="shared" ref="P107:P112" si="6">O107/3.58</f>
+        <v>6.7867094972067044</v>
+      </c>
+    </row>
+    <row r="108" spans="7:16">
+      <c r="G108" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="33">
+        <f>SUM((O41,O44,O47:O52))</f>
+        <v>458.15199999999993</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="6"/>
+        <v>127.97541899441339</v>
+      </c>
+    </row>
+    <row r="109" spans="7:16">
+      <c r="G109" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="34">
+        <f>SUM(O56:O62,O65:O70)</f>
+        <v>567.57000000000005</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="6"/>
+        <v>158.5391061452514</v>
+      </c>
+    </row>
+    <row r="110" spans="7:16">
+      <c r="G110" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="33">
+        <f>SUM(O73:O81)</f>
+        <v>70</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="6"/>
+        <v>19.553072625698324</v>
+      </c>
+    </row>
+    <row r="111" spans="7:16">
+      <c r="G111" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="33">
+        <f>SUM(O84,O85,O87)</f>
+        <v>117.2</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="6"/>
+        <v>32.737430167597765</v>
+      </c>
+    </row>
+    <row r="112" spans="7:16">
+      <c r="G112" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="33">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="6"/>
+        <v>2.7932960893854748</v>
+      </c>
+    </row>
+    <row r="113" spans="7:16">
+      <c r="G113" s="18" t="s">
+        <v>253</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -3445,9 +3557,16 @@
       <c r="L113" s="4"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="7:15">
+      <c r="O113" s="33">
+        <f>SUM(O106:O112)</f>
+        <v>1405.5889890000001</v>
+      </c>
+      <c r="P113">
+        <f>O113/3.58</f>
+        <v>392.62262262569834</v>
+      </c>
+    </row>
+    <row r="114" spans="7:16">
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -3458,7 +3577,7 @@
       <c r="N114" s="5"/>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="7:15">
+    <row r="115" spans="7:16">
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -3469,8 +3588,37 @@
       <c r="N115" s="5"/>
       <c r="O115" s="4"/>
     </row>
+    <row r="116" spans="7:16">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
+    <mergeCell ref="G111:N111"/>
+    <mergeCell ref="G112:N112"/>
+    <mergeCell ref="G106:N106"/>
+    <mergeCell ref="G107:N107"/>
+    <mergeCell ref="G108:N108"/>
+    <mergeCell ref="G109:N109"/>
+    <mergeCell ref="G110:N110"/>
+    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="L74:L81"/>
+    <mergeCell ref="G83:N83"/>
+    <mergeCell ref="G89:N89"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="G72:N72"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
     <mergeCell ref="G15:N15"/>
     <mergeCell ref="G21:N21"/>
     <mergeCell ref="H27:H31"/>
@@ -3478,17 +3626,6 @@
     <mergeCell ref="H22:H24"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J33:J34"/>
-    <mergeCell ref="G40:N40"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="L73:L80"/>
-    <mergeCell ref="G82:N82"/>
-    <mergeCell ref="G88:N88"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="G71:N71"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K16" r:id="rId1"/>
@@ -3555,16 +3692,16 @@
     <hyperlink ref="K67" r:id="rId62"/>
     <hyperlink ref="L68" r:id="rId63"/>
     <hyperlink ref="L69" r:id="rId64"/>
-    <hyperlink ref="K72" r:id="rId65"/>
-    <hyperlink ref="L72" r:id="rId66"/>
-    <hyperlink ref="K74" r:id="rId67"/>
-    <hyperlink ref="K83" r:id="rId68"/>
-    <hyperlink ref="L83" r:id="rId69"/>
-    <hyperlink ref="K85" r:id="rId70"/>
-    <hyperlink ref="K89" r:id="rId71"/>
-    <hyperlink ref="K90" r:id="rId72"/>
-    <hyperlink ref="K91" r:id="rId73"/>
-    <hyperlink ref="K86" r:id="rId74"/>
+    <hyperlink ref="K73" r:id="rId65"/>
+    <hyperlink ref="L73" r:id="rId66"/>
+    <hyperlink ref="K75" r:id="rId67"/>
+    <hyperlink ref="K84" r:id="rId68"/>
+    <hyperlink ref="L84" r:id="rId69"/>
+    <hyperlink ref="K86" r:id="rId70"/>
+    <hyperlink ref="K90" r:id="rId71"/>
+    <hyperlink ref="K91" r:id="rId72"/>
+    <hyperlink ref="K92" r:id="rId73"/>
+    <hyperlink ref="K87" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId75"/>
